--- a/Menuitems.xlsx
+++ b/Menuitems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terre\Administrator\Desktop\CZ2002\oodpProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7468E8-0412-4F43-88DE-B8C10082AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94260F5-60B5-46EA-AAE4-AB72D5B9A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{938EF673-AEEC-47AD-B6C8-BC98A229A5D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Main Course</t>
   </si>
@@ -120,10 +120,28 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Classic Fish &amp; Chips comes with Garlic bun </t>
-  </si>
-  <si>
     <t>Classic Fish &amp; Chips</t>
+  </si>
+  <si>
+    <t>Classic Fish &amp; Chips comes with Garlic bun and Latte</t>
+  </si>
+  <si>
+    <t>Squid head</t>
+  </si>
+  <si>
+    <t>Cheese Platter</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourmet cheeses include award-winning truffle gouda, smoked cheese, soft &amp; creamy brie </t>
+  </si>
+  <si>
+    <t>Tender and juicy squid head</t>
+  </si>
+  <si>
+    <t>Your typical coke on canned</t>
   </si>
 </sst>
 </file>
@@ -475,19 +493,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58421B9-0E55-4669-8444-A82A78299499}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +524,35 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,8 +562,35 @@
       <c r="C2">
         <v>19.899999999999999</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>3.4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>22.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -517,10 +598,37 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>23.4</v>
+        <v>23.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -530,10 +638,37 @@
       <c r="C4">
         <v>22.5</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>3.8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -541,108 +676,23 @@
       <c r="C5">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Menuitems.xlsx
+++ b/Menuitems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terre\Administrator\Desktop\CZ2002\oodpProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94260F5-60B5-46EA-AAE4-AB72D5B9A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771DD95D-7019-42CC-A37E-15C51C117529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{938EF673-AEEC-47AD-B6C8-BC98A229A5D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Main Course</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Apple House's Steak comes with Mushroom soup and Lime juice</t>
   </si>
   <si>
-    <t>T-Bone Steak comes with Mushroom soup and English tea</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>Your typical coke on canned</t>
+  </si>
+  <si>
+    <t>T-Bone Steak comes with Mushroom soup and English Tea</t>
+  </si>
+  <si>
+    <t>floor(0.9*total original price)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,8 +589,8 @@
       <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="L2">
-        <v>22.4</v>
+      <c r="L2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -622,10 +625,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -639,10 +642,10 @@
         <v>22.5</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -657,18 +660,18 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -677,19 +680,19 @@
         <v>15.5</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>3</v>

--- a/Menuitems.xlsx
+++ b/Menuitems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terre\Administrator\Desktop\CZ2002\oodpProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771DD95D-7019-42CC-A37E-15C51C117529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA5E5F7-3419-4BB9-A58A-557F52759580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{938EF673-AEEC-47AD-B6C8-BC98A229A5D5}"/>
   </bookViews>
@@ -105,18 +105,9 @@
     <t>Promotional set</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Apple House's Steak comes with Mushroom soup and Lime juice</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Classic Fish &amp; Chips</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>floor(0.9*total original price)</t>
+  </si>
+  <si>
+    <t>ASet House's special</t>
+  </si>
+  <si>
+    <t>Set T-bone's special</t>
+  </si>
+  <si>
+    <t>Set Fishy meal</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,13 +584,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -622,13 +622,13 @@
         <v>3.8</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -642,10 +642,10 @@
         <v>22.5</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -660,18 +660,18 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -680,19 +680,19 @@
         <v>15.5</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
       <c r="I5">
         <v>3</v>
